--- a/DataBase/数据库构思.xlsx
+++ b/DataBase/数据库构思.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\毕业设计\面向校园公众号推文的量化分析与可视化\数据库建立+数据获取\Wechat-articles-analysis-of-unis-during-COVID-19-epidemic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\毕业设计\面向校园公众号推文的数据分析与可视化\数据库建立+数据获取\Wechat-articles-analysis-of-unis-during-COVID-19-epidemic\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E339317-D266-4D92-AFC2-6F32DFA5EB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BE1BC1-783D-48E2-841D-230223EF0DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B19BD404-B698-44AC-B608-533EE75ED385}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="comment-json" sheetId="4" r:id="rId3"/>
+    <sheet name="page_time_5s" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="162">
   <si>
     <t>report_bizuin</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -289,67 +292,326 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>keywords</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*关键词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>word_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*文章词频字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容库组成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>__biz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_spread</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat_account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_hotwords</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand_confidence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌自信度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论热词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>publish_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*关键词</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>word_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*文章词频字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容库组成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>__biz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_spread</t>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_worscount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论词频表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elected_comment_cnt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_bizuin</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>like_cnt</t>
+  </si>
+  <si>
+    <t>copyright_stat</t>
+  </si>
+  <si>
+    <t>ori_article_type</t>
+  </si>
+  <si>
+    <t>video_cnt</t>
+  </si>
+  <si>
+    <t>img_cnt</t>
+  </si>
+  <si>
+    <t>MzA3NDgyNzk4Ng==</t>
+  </si>
+  <si>
+    <t>中国古代是如何应对瘟疫的？王立群教授开讲啦 | 战“疫”公开课③</t>
+  </si>
+  <si>
+    <t>subscene</t>
+  </si>
+  <si>
+    <t>sessionid</t>
+  </si>
+  <si>
+    <t>read_cnt</t>
+  </si>
+  <si>
+    <t>screen_width</t>
+  </si>
+  <si>
+    <t>screen_height</t>
+  </si>
+  <si>
+    <t>screen_num</t>
+  </si>
+  <si>
+    <t>idkey</t>
+  </si>
+  <si>
+    <t>64469_15_1;28307_11_1;28307_91_1;28307_77_1;28307_78_1;28307_80_1;28307_92_1;28307_94_1;28307_64_1;27613_31_195</t>
+  </si>
+  <si>
+    <t>read_screen_num</t>
+  </si>
+  <si>
+    <t>is_finished_read</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>content_len</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>handup_time</t>
+  </si>
+  <si>
+    <t>total_height</t>
+  </si>
+  <si>
+    <t>exit_height</t>
+  </si>
+  <si>
+    <t>img_640_cnt</t>
+  </si>
+  <si>
+    <t>img_0_cnt</t>
+  </si>
+  <si>
+    <t>img_300_cnt</t>
+  </si>
+  <si>
+    <t>wtime</t>
+  </si>
+  <si>
+    <t>ftime</t>
+  </si>
+  <si>
+    <t>ptime</t>
+  </si>
+  <si>
+    <t>onload_time</t>
+  </si>
+  <si>
+    <t>reward_heads_total</t>
+  </si>
+  <si>
+    <t>reward_heads_fail</t>
+  </si>
+  <si>
+    <t>outer_pic</t>
+  </si>
+  <si>
+    <t>item_show_type</t>
+  </si>
+  <si>
+    <t>page_req_info</t>
+  </si>
+  <si>
+    <t>{"startGetAppmsgExtTime":1586608416407,"startGetAppmsgAdTime":1586608416489,"receiveGetAppmsgExt":"200|1586608416529","receiveGetAppmsgAd":"200|1586608416611","jsapiReadyTime":1586608420613,"domCompleteTime":1586608415643}</t>
+  </si>
+  <si>
+    <t>wifi_all_imgs_cnt</t>
+  </si>
+  <si>
+    <t>wifi_read_imgs_cnt</t>
+  </si>
+  <si>
+    <t>webp_total</t>
+  </si>
+  <si>
+    <t>webp_lossy</t>
+  </si>
+  <si>
+    <t>webp_lossless</t>
+  </si>
+  <si>
+    <t>webp_alpha</t>
+  </si>
+  <si>
+    <t>webp_animation</t>
+  </si>
+  <si>
+    <t>download_cdn_webp_img_cnt</t>
+  </si>
+  <si>
+    <t>download_img_cnt</t>
+  </si>
+  <si>
+    <t>download_cdn_img_cnt</t>
+  </si>
+  <si>
+    <t>img_jpeg_cnt</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>req_id</t>
+  </si>
+  <si>
+    <t>1120IsnBiywU0CrAYAFomUmV</t>
+  </si>
+  <si>
+    <t>recommend_version</t>
+  </si>
+  <si>
+    <t>class_id</t>
+  </si>
+  <si>
+    <t>ascene</t>
+  </si>
+  <si>
+    <t>hotspotjson</t>
+  </si>
+  <si>
+    <t>{"hotspotinfolist":[]}</t>
+  </si>
+  <si>
+    <t>is_pay_subscribe</t>
+  </si>
+  <si>
+    <t>is_paid</t>
+  </si>
+  <si>
+    <t>preview_percent</t>
+  </si>
+  <si>
+    <t>is_finished_preview</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>pay_cnt</t>
+  </si>
+  <si>
+    <t>worthy_cnt</t>
+  </si>
+  <si>
+    <t>base_resp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>errmsg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +684,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -449,7 +725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -692,13 +968,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +1077,84 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,83 +1162,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9356F90B-25A1-43F5-9DA1-B43D84C2BAD1}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1286,122 +1674,168 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="G10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="27" t="s">
         <v>31</v>
       </c>
+      <c r="F11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="F12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="29" t="s">
         <v>34</v>
       </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>69</v>
+      <c r="F14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>32</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>71</v>
+      <c r="F16" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>38</v>
@@ -1411,28 +1845,28 @@
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>73</v>
+      <c r="D19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1442,6 +1876,12 @@
       <c r="C20" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="D20" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
@@ -1458,10 +1898,6 @@
       <c r="C22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
@@ -1470,12 +1906,6 @@
       <c r="C23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
@@ -1484,25 +1914,13 @@
       <c r="C24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -1512,12 +1930,6 @@
       <c r="C26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
@@ -1526,28 +1938,745 @@
       <c r="C27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5F4E56-5EC2-4433-B0CD-F403C9C1732B}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="52"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06B2B21-10C1-48AD-97C4-A3922478AF1A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B8286D-4C39-4F1C-973D-ADC57AB4AE27}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.25" style="47" customWidth="1"/>
+    <col min="2" max="2" width="45.9140625" style="48" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="48">
+        <v>2653790248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="48">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="48">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="48">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="48">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="48">
+        <v>914138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="48">
+        <v>1586608415476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="48">
+        <v>1586608424439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="48">
+        <v>7243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="48">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="48">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="48">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="48">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="48">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="48">
+        <v>1582255285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+      <c r="A37" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A47" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>